--- a/R/gen_doc/doc_vars.xlsx
+++ b/R/gen_doc/doc_vars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="24160" windowWidth="32780" windowHeight="11280" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="32000" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="180">
   <si>
     <t>librarians</t>
   </si>
@@ -502,6 +502,63 @@
   </si>
   <si>
     <t>murder_2015_final</t>
+  </si>
+  <si>
+    <t>nba_draft_2015</t>
+  </si>
+  <si>
+    <t>`Player` | Player name</t>
+  </si>
+  <si>
+    <t>`Position` | The player's position going into the draft</t>
+  </si>
+  <si>
+    <t>`ID` | The player's identification code</t>
+  </si>
+  <si>
+    <t>`Draft Year` | The year the player was eligible for the NBA draft</t>
+  </si>
+  <si>
+    <t>`Projected SPM` | The model's projected statistical plus/minus over years 2-5 of the player's NBA career</t>
+  </si>
+  <si>
+    <t>`Superstar` | Probability of becoming a superstar player (1 per draft, SPM &gt;= +3.3)</t>
+  </si>
+  <si>
+    <t>`Starter` | Probability of becoming a starting-caliber player (10 per draft, SPM &gt;= +0.5)</t>
+  </si>
+  <si>
+    <t>`Role Player` | Probability of becoming a role player (25 per draft, SPM &gt;= -1.4)</t>
+  </si>
+  <si>
+    <t>`Bust` | Probability of becoming a bust (everyone else, SPM &lt; -1.4)</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>draft_year</t>
+  </si>
+  <si>
+    <t>projected_spm</t>
+  </si>
+  <si>
+    <t>superstar</t>
+  </si>
+  <si>
+    <t>starter</t>
+  </si>
+  <si>
+    <t>role_player</t>
+  </si>
+  <si>
+    <t>bust</t>
   </si>
 </sst>
 </file>
@@ -550,7 +607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,11 +627,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -584,6 +650,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -593,6 +663,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,10 +999,10 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E73" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomRight" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2173,138 +2247,219 @@
       </c>
     </row>
     <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>162</v>
+      </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Player name</v>
       </c>
     </row>
     <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" t="s">
+        <v>163</v>
+      </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>The player's position going into the draft</v>
       </c>
     </row>
     <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
+        <v>164</v>
+      </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>The player's identification code</v>
       </c>
     </row>
     <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" t="s">
+        <v>165</v>
+      </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>The year the player was eligible for the NBA draft</v>
       </c>
     </row>
     <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>The model's projected statistical plus/minus over years 2-5 of the player's NBA career</v>
       </c>
     </row>
     <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Probability of becoming a superstar player (1 per draft, SPM &gt;= +3.3)</v>
       </c>
     </row>
     <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
+        <v>Probability of becoming a starting-caliber player (10 per draft, SPM &gt;= +0.5)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
+        <v>Probability of becoming a role player (25 per draft, SPM &gt;= -1.4)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>170</v>
+      </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
+        <v>Probability of becoming a bust (everyone else, SPM &lt; -1.4)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="D99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="1:4">
       <c r="D100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="1:4">
       <c r="D101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="1:4">
       <c r="D102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="1:4">
       <c r="D103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="1:4">
       <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="1:4">
       <c r="D105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="1:4">
       <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="1:4">
       <c r="D107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="1:4">
       <c r="D108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="4:4">
+    <row r="109" spans="1:4">
       <c r="D109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="4:4">
+    <row r="110" spans="1:4">
       <c r="D110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="4:4">
+    <row r="111" spans="1:4">
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D156" si="2">IF(C111="","", RIGHT(C111,LEN(C111)-FIND("|",C111) - 1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
+        <f t="shared" ref="D111:D130" si="2">IF(C111="","", RIGHT(C111,LEN(C111)-FIND("|",C111) - 1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="D112" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2420,157 +2575,157 @@
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D111:D156" si="3">IF(C131="","", RIGHT(C131,LEN(C131)-FIND("|",C131) - 1))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
